--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_AP_04請求書オプションの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_AP_04請求書オプションの管理.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\AP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20247_【会計】基幹システムバージョンアップ（会計領域　AP部門入力）\20_成果物\05.BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10032" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="10032"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="う" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -864,12 +864,34 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>E_本稼動_20247 STEP4 AP部門入力対応</t>
+    <rPh sb="20" eb="24">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,8 +999,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1038,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -1283,7 +1318,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1357,6 +1392,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,14 +1500,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,15 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1514,6 +1573,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2064,1164 +2130,1170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:AK4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.95" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="3" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+    <row r="1" spans="1:37" ht="10.95" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A2" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="67"/>
-    </row>
-    <row r="3" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68">
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="78"/>
+    </row>
+    <row r="3" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A3" s="79">
         <v>44923</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="70"/>
-    </row>
-    <row r="4" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="81"/>
+    </row>
+    <row r="4" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A4" s="52">
         <v>45033</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="71" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="59" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="52"/>
-    </row>
-    <row r="5" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="62"/>
-    </row>
-    <row r="6" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="58"/>
-    </row>
-    <row r="7" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="40"/>
-    </row>
-    <row r="8" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="40"/>
-    </row>
-    <row r="9" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="49"/>
-    </row>
-    <row r="10" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="40"/>
-    </row>
-    <row r="11" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="34"/>
-    </row>
-    <row r="12" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="34"/>
-    </row>
-    <row r="13" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="34"/>
-    </row>
-    <row r="14" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="34"/>
-    </row>
-    <row r="15" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="34"/>
-    </row>
-    <row r="16" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="34"/>
-    </row>
-    <row r="17" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="34"/>
-    </row>
-    <row r="18" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="34"/>
-    </row>
-    <row r="19" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="34"/>
-    </row>
-    <row r="20" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="34"/>
-    </row>
-    <row r="21" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="34"/>
-    </row>
-    <row r="22" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="34"/>
-    </row>
-    <row r="23" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="34"/>
-    </row>
-    <row r="24" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="34"/>
-    </row>
-    <row r="25" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="34"/>
-    </row>
-    <row r="26" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="34"/>
-    </row>
-    <row r="27" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="34"/>
-    </row>
-    <row r="28" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="34"/>
-    </row>
-    <row r="29" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="34"/>
-    </row>
-    <row r="30" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="29"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="54"/>
+    </row>
+    <row r="5" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A5" s="65">
+        <v>45665</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="73"/>
+    </row>
+    <row r="6" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="60"/>
+    </row>
+    <row r="7" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="42"/>
+    </row>
+    <row r="8" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="42"/>
+    </row>
+    <row r="9" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="51"/>
+    </row>
+    <row r="10" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="42"/>
+    </row>
+    <row r="11" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="36"/>
+    </row>
+    <row r="12" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="36"/>
+    </row>
+    <row r="13" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="36"/>
+    </row>
+    <row r="14" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="36"/>
+    </row>
+    <row r="16" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="36"/>
+    </row>
+    <row r="17" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="36"/>
+    </row>
+    <row r="18" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="36"/>
+    </row>
+    <row r="19" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="36"/>
+    </row>
+    <row r="20" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="36"/>
+    </row>
+    <row r="21" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="36"/>
+    </row>
+    <row r="22" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="36"/>
+    </row>
+    <row r="23" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="36"/>
+    </row>
+    <row r="24" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="36"/>
+    </row>
+    <row r="25" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="36"/>
+    </row>
+    <row r="26" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="36"/>
+    </row>
+    <row r="27" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="36"/>
+    </row>
+    <row r="28" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="36"/>
+    </row>
+    <row r="29" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="36"/>
+    </row>
+    <row r="30" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -3320,13 +3392,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
@@ -3335,27 +3410,27 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3363,13 +3438,13 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -3377,7 +3452,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -3385,14 +3460,14 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" s="5" customFormat="1"/>
+    <row r="11" spans="1:6" s="5" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -3400,7 +3475,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" s="5" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3422,7 +3497,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="5" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -3434,7 +3509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" s="5" customFormat="1">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3521,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" s="5" customFormat="1">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -3464,7 +3539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="5" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -3479,7 +3554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" s="5" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3494,11 +3569,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="5" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
@@ -3509,7 +3586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="5" customFormat="1">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
@@ -3524,14 +3601,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="5" customFormat="1">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="5" customFormat="1"/>
+    <row r="23" spans="1:5" s="5" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>34</v>
       </c>
@@ -3539,7 +3616,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="5" customFormat="1">
       <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
@@ -3549,7 +3626,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
@@ -3559,7 +3636,7 @@
       </c>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" s="5" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>39</v>
       </c>
@@ -3568,8 +3645,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" s="5" customFormat="1"/>
+    <row r="28" spans="1:5" s="5" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -3577,7 +3654,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" s="5" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
@@ -3587,14 +3664,14 @@
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" s="5" customFormat="1">
       <c r="A30" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" s="5" customFormat="1">
       <c r="A31" s="9" t="s">
         <v>45</v>
       </c>
@@ -3603,8 +3680,8 @@
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" s="5" customFormat="1"/>
+    <row r="33" spans="1:6" s="5" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>47</v>
       </c>
@@ -3612,7 +3689,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A34" s="9" t="s">
         <v>18</v>
       </c>
@@ -3627,7 +3704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
@@ -3637,8 +3714,8 @@
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" s="5" customFormat="1"/>
+    <row r="37" spans="1:6" s="5" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
@@ -3646,17 +3723,21 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" s="5" customFormat="1">
       <c r="A38" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="C38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="D38" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" ht="30">
       <c r="A39" s="9" t="s">
         <v>55</v>
       </c>
@@ -3666,7 +3747,7 @@
       </c>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" s="5" customFormat="1">
       <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
@@ -3676,8 +3757,8 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" s="5" customFormat="1"/>
+    <row r="42" spans="1:6" s="5" customFormat="1">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -3685,7 +3766,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" s="5" customFormat="1">
       <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
@@ -3695,22 +3776,22 @@
       </c>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" s="5" customFormat="1">
       <c r="A44" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="16"/>
     </row>
-    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" s="5" customFormat="1">
       <c r="A45" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" s="5" customFormat="1"/>
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
         <v>64</v>
       </c>
@@ -3720,7 +3801,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" s="9" t="s">
         <v>18</v>
       </c>
@@ -3737,7 +3818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
         <v>13</v>
       </c>
@@ -3746,7 +3827,7 @@
       </c>
       <c r="C49" s="21"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>67</v>
       </c>
@@ -3754,7 +3835,7 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="30">
       <c r="A52" s="9" t="s">
         <v>68</v>
       </c>
@@ -3764,7 +3845,7 @@
       </c>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>70</v>
       </c>
@@ -3776,12 +3857,12 @@
       </c>
       <c r="D53" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4">
       <c r="A59" s="23"/>
     </row>
   </sheetData>
